--- a/8/5/1/Importaciones 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Importaciones 2003 a 2021 - Trimestral.xlsx
@@ -12738,13 +12738,13 @@
         <v>126</v>
       </c>
       <c r="B74">
-        <v>19376</v>
+        <v>19402</v>
       </c>
       <c r="C74">
-        <v>17940</v>
+        <v>17967</v>
       </c>
       <c r="D74">
-        <v>5801</v>
+        <v>5803</v>
       </c>
       <c r="E74">
         <v>2290</v>
@@ -12774,10 +12774,10 @@
         <v>257</v>
       </c>
       <c r="N74">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O74">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P74">
         <v>377</v>
@@ -12786,10 +12786,10 @@
         <v>128</v>
       </c>
       <c r="R74">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S74">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T74">
         <v>270</v>
@@ -12798,37 +12798,37 @@
         <v>264</v>
       </c>
       <c r="V74">
-        <v>9518</v>
+        <v>9543</v>
       </c>
       <c r="W74">
-        <v>2438</v>
+        <v>2468</v>
       </c>
       <c r="X74">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="Y74">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="Z74">
         <v>219</v>
       </c>
       <c r="AA74">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB74">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AC74">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AD74">
-        <v>7080</v>
+        <v>7075</v>
       </c>
       <c r="AE74">
         <v>985</v>
       </c>
       <c r="AF74">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG74">
         <v>849</v>
@@ -12837,13 +12837,13 @@
         <v>160</v>
       </c>
       <c r="AI74">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ74">
         <v>97</v>
       </c>
       <c r="AK74">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL74">
         <v>237</v>
@@ -12902,49 +12902,49 @@
         <v>127</v>
       </c>
       <c r="B75">
-        <v>20641</v>
+        <v>20672</v>
       </c>
       <c r="C75">
-        <v>19031</v>
+        <v>19060</v>
       </c>
       <c r="D75">
-        <v>6100</v>
+        <v>6106</v>
       </c>
       <c r="E75">
         <v>2556</v>
       </c>
       <c r="F75">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G75">
         <v>324</v>
       </c>
       <c r="H75">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I75">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J75">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K75">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="L75">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M75">
         <v>192</v>
       </c>
       <c r="N75">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="O75">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P75">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q75">
         <v>121</v>
@@ -12959,52 +12959,52 @@
         <v>317</v>
       </c>
       <c r="U75">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="V75">
-        <v>10248</v>
+        <v>10279</v>
       </c>
       <c r="W75">
-        <v>2630</v>
+        <v>2668</v>
       </c>
       <c r="X75">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="Y75">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="Z75">
         <v>268</v>
       </c>
       <c r="AA75">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AB75">
         <v>3</v>
       </c>
       <c r="AC75">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AD75">
-        <v>7618</v>
+        <v>7611</v>
       </c>
       <c r="AE75">
         <v>1238</v>
       </c>
       <c r="AF75">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG75">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AH75">
         <v>182</v>
       </c>
       <c r="AI75">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AJ75">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK75">
         <v>110</v>
@@ -13019,22 +13019,22 @@
         <v>147</v>
       </c>
       <c r="AO75">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AP75">
-        <v>4293</v>
+        <v>4287</v>
       </c>
       <c r="AQ75">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AR75">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS75">
         <v>21</v>
       </c>
       <c r="AT75">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AU75">
         <v>364</v>
@@ -13049,13 +13049,13 @@
         <v>2</v>
       </c>
       <c r="AY75">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AZ75">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BA75">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BB75">
         <v>272</v>

--- a/8/5/1/Importaciones 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Importaciones 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Serie</t>
   </si>
@@ -399,6 +399,9 @@
   <si>
     <t>01-04-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB75"/>
+  <dimension ref="A1:BB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13061,6 +13064,170 @@
         <v>272</v>
       </c>
     </row>
+    <row r="76" spans="1:54">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76">
+        <v>24763</v>
+      </c>
+      <c r="C76">
+        <v>22505</v>
+      </c>
+      <c r="D76">
+        <v>7557</v>
+      </c>
+      <c r="E76">
+        <v>3026</v>
+      </c>
+      <c r="F76">
+        <v>902</v>
+      </c>
+      <c r="G76">
+        <v>343</v>
+      </c>
+      <c r="H76">
+        <v>566</v>
+      </c>
+      <c r="I76">
+        <v>323</v>
+      </c>
+      <c r="J76">
+        <v>312</v>
+      </c>
+      <c r="K76">
+        <v>1933</v>
+      </c>
+      <c r="L76">
+        <v>814</v>
+      </c>
+      <c r="M76">
+        <v>312</v>
+      </c>
+      <c r="N76">
+        <v>2597</v>
+      </c>
+      <c r="O76">
+        <v>637</v>
+      </c>
+      <c r="P76">
+        <v>450</v>
+      </c>
+      <c r="Q76">
+        <v>126</v>
+      </c>
+      <c r="R76">
+        <v>80</v>
+      </c>
+      <c r="S76">
+        <v>129</v>
+      </c>
+      <c r="T76">
+        <v>292</v>
+      </c>
+      <c r="U76">
+        <v>341</v>
+      </c>
+      <c r="V76">
+        <v>12598</v>
+      </c>
+      <c r="W76">
+        <v>3706</v>
+      </c>
+      <c r="X76">
+        <v>1194</v>
+      </c>
+      <c r="Y76">
+        <v>1069</v>
+      </c>
+      <c r="Z76">
+        <v>382</v>
+      </c>
+      <c r="AA76">
+        <v>589</v>
+      </c>
+      <c r="AB76">
+        <v>51</v>
+      </c>
+      <c r="AC76">
+        <v>133</v>
+      </c>
+      <c r="AD76">
+        <v>8892</v>
+      </c>
+      <c r="AE76">
+        <v>1321</v>
+      </c>
+      <c r="AF76">
+        <v>456</v>
+      </c>
+      <c r="AG76">
+        <v>1156</v>
+      </c>
+      <c r="AH76">
+        <v>185</v>
+      </c>
+      <c r="AI76">
+        <v>762</v>
+      </c>
+      <c r="AJ76">
+        <v>123</v>
+      </c>
+      <c r="AK76">
+        <v>171</v>
+      </c>
+      <c r="AL76">
+        <v>322</v>
+      </c>
+      <c r="AM76">
+        <v>108</v>
+      </c>
+      <c r="AN76">
+        <v>180</v>
+      </c>
+      <c r="AO76">
+        <v>286</v>
+      </c>
+      <c r="AP76">
+        <v>4607</v>
+      </c>
+      <c r="AQ76">
+        <v>691</v>
+      </c>
+      <c r="AR76">
+        <v>93</v>
+      </c>
+      <c r="AS76">
+        <v>55</v>
+      </c>
+      <c r="AT76">
+        <v>302</v>
+      </c>
+      <c r="AU76">
+        <v>328</v>
+      </c>
+      <c r="AV76">
+        <v>55</v>
+      </c>
+      <c r="AW76">
+        <v>148</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>1303</v>
+      </c>
+      <c r="AZ76">
+        <v>278</v>
+      </c>
+      <c r="BA76">
+        <v>307</v>
+      </c>
+      <c r="BB76">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
